--- a/src/test/resources/1234.xlsx
+++ b/src/test/resources/1234.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -479,20 +484,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0;;"/>
+    <numFmt numFmtId="164" formatCode="0.0;;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -500,7 +505,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -509,7 +514,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -518,7 +523,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -526,7 +531,7 @@
     <font>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -541,6 +546,13 @@
       <color indexed="18"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="나눔고딕"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -579,51 +591,51 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -631,14 +643,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,7 +676,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,14 +698,27 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,29 +735,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_TIME REPORT" xfId="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1752,678 +1767,678 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:JL66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="8" ySplit="6" topLeftCell="CP7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="CG1" sqref="CG1:DH1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="272" width="2.75" customWidth="1"/>
-    <col min="273" max="279" width="4.625" customWidth="1"/>
+    <col min="9" max="272" width="2.6640625" customWidth="1"/>
+    <col min="273" max="279" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:272" x14ac:dyDescent="0.3">
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="3:272">
+      <c r="C3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18" t="s">
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="13"/>
+      <c r="BE3" s="13"/>
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="13"/>
+      <c r="BI3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BJ3" s="18"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="18"/>
-      <c r="BM3" s="18"/>
-      <c r="BN3" s="18"/>
-      <c r="BO3" s="18"/>
-      <c r="BP3" s="18"/>
-      <c r="BQ3" s="18"/>
-      <c r="BR3" s="18"/>
-      <c r="BS3" s="18"/>
-      <c r="BT3" s="18"/>
-      <c r="BU3" s="18"/>
-      <c r="BV3" s="18"/>
-      <c r="BW3" s="18"/>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="18"/>
-      <c r="BZ3" s="18"/>
-      <c r="CA3" s="18"/>
-      <c r="CB3" s="18"/>
-      <c r="CC3" s="18"/>
-      <c r="CD3" s="18"/>
-      <c r="CE3" s="18"/>
-      <c r="CF3" s="18"/>
-      <c r="CG3" s="18"/>
-      <c r="CH3" s="18"/>
-      <c r="CI3" s="18"/>
-      <c r="CJ3" s="18"/>
-      <c r="CK3" s="18"/>
-      <c r="CL3" s="18"/>
-      <c r="CM3" s="18" t="s">
+      <c r="BJ3" s="13"/>
+      <c r="BK3" s="13"/>
+      <c r="BL3" s="13"/>
+      <c r="BM3" s="13"/>
+      <c r="BN3" s="13"/>
+      <c r="BO3" s="13"/>
+      <c r="BP3" s="13"/>
+      <c r="BQ3" s="13"/>
+      <c r="BR3" s="13"/>
+      <c r="BS3" s="13"/>
+      <c r="BT3" s="13"/>
+      <c r="BU3" s="13"/>
+      <c r="BV3" s="13"/>
+      <c r="BW3" s="13"/>
+      <c r="BX3" s="13"/>
+      <c r="BY3" s="13"/>
+      <c r="BZ3" s="13"/>
+      <c r="CA3" s="13"/>
+      <c r="CB3" s="13"/>
+      <c r="CC3" s="13"/>
+      <c r="CD3" s="13"/>
+      <c r="CE3" s="13"/>
+      <c r="CF3" s="13"/>
+      <c r="CG3" s="13"/>
+      <c r="CH3" s="13"/>
+      <c r="CI3" s="13"/>
+      <c r="CJ3" s="13"/>
+      <c r="CK3" s="13"/>
+      <c r="CL3" s="13"/>
+      <c r="CM3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CN3" s="18"/>
-      <c r="CO3" s="18"/>
-      <c r="CP3" s="18"/>
-      <c r="CQ3" s="18"/>
-      <c r="CR3" s="18"/>
-      <c r="CS3" s="18"/>
-      <c r="CT3" s="18"/>
-      <c r="CU3" s="18"/>
-      <c r="CV3" s="18"/>
-      <c r="CW3" s="18"/>
-      <c r="CX3" s="18"/>
-      <c r="CY3" s="18"/>
-      <c r="CZ3" s="18"/>
-      <c r="DA3" s="18"/>
-      <c r="DB3" s="18"/>
-      <c r="DC3" s="18"/>
-      <c r="DD3" s="18"/>
-      <c r="DE3" s="18"/>
-      <c r="DF3" s="18"/>
-      <c r="DG3" s="18"/>
-      <c r="DH3" s="18"/>
-      <c r="DI3" s="18"/>
-      <c r="DJ3" s="18"/>
-      <c r="DK3" s="18"/>
-      <c r="DL3" s="18"/>
-      <c r="DM3" s="18"/>
-      <c r="DN3" s="18"/>
-      <c r="DO3" s="18"/>
-      <c r="DP3" s="18"/>
-      <c r="DQ3" s="18"/>
-      <c r="DR3" s="18" t="s">
+      <c r="CN3" s="13"/>
+      <c r="CO3" s="13"/>
+      <c r="CP3" s="13"/>
+      <c r="CQ3" s="13"/>
+      <c r="CR3" s="13"/>
+      <c r="CS3" s="13"/>
+      <c r="CT3" s="13"/>
+      <c r="CU3" s="13"/>
+      <c r="CV3" s="13"/>
+      <c r="CW3" s="13"/>
+      <c r="CX3" s="13"/>
+      <c r="CY3" s="13"/>
+      <c r="CZ3" s="13"/>
+      <c r="DA3" s="13"/>
+      <c r="DB3" s="13"/>
+      <c r="DC3" s="13"/>
+      <c r="DD3" s="13"/>
+      <c r="DE3" s="13"/>
+      <c r="DF3" s="13"/>
+      <c r="DG3" s="13"/>
+      <c r="DH3" s="13"/>
+      <c r="DI3" s="13"/>
+      <c r="DJ3" s="13"/>
+      <c r="DK3" s="13"/>
+      <c r="DL3" s="13"/>
+      <c r="DM3" s="13"/>
+      <c r="DN3" s="13"/>
+      <c r="DO3" s="13"/>
+      <c r="DP3" s="13"/>
+      <c r="DQ3" s="13"/>
+      <c r="DR3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="DS3" s="18"/>
-      <c r="DT3" s="18"/>
-      <c r="DU3" s="18"/>
-      <c r="DV3" s="18"/>
-      <c r="DW3" s="18"/>
-      <c r="DX3" s="18"/>
-      <c r="DY3" s="18"/>
-      <c r="DZ3" s="18"/>
-      <c r="EA3" s="18"/>
-      <c r="EB3" s="18"/>
-      <c r="EC3" s="18"/>
-      <c r="ED3" s="18"/>
-      <c r="EE3" s="18"/>
-      <c r="EF3" s="18"/>
-      <c r="EG3" s="18"/>
-      <c r="EH3" s="18"/>
-      <c r="EI3" s="18"/>
-      <c r="EJ3" s="18"/>
-      <c r="EK3" s="18"/>
-      <c r="EL3" s="18"/>
-      <c r="EM3" s="18"/>
-      <c r="EN3" s="18"/>
-      <c r="EO3" s="18"/>
-      <c r="EP3" s="18"/>
-      <c r="EQ3" s="18"/>
-      <c r="ER3" s="18"/>
-      <c r="ES3" s="18"/>
-      <c r="ET3" s="18"/>
-      <c r="EU3" s="18"/>
-      <c r="EV3" s="18"/>
-      <c r="EW3" s="18" t="s">
+      <c r="DS3" s="13"/>
+      <c r="DT3" s="13"/>
+      <c r="DU3" s="13"/>
+      <c r="DV3" s="13"/>
+      <c r="DW3" s="13"/>
+      <c r="DX3" s="13"/>
+      <c r="DY3" s="13"/>
+      <c r="DZ3" s="13"/>
+      <c r="EA3" s="13"/>
+      <c r="EB3" s="13"/>
+      <c r="EC3" s="13"/>
+      <c r="ED3" s="13"/>
+      <c r="EE3" s="13"/>
+      <c r="EF3" s="13"/>
+      <c r="EG3" s="13"/>
+      <c r="EH3" s="13"/>
+      <c r="EI3" s="13"/>
+      <c r="EJ3" s="13"/>
+      <c r="EK3" s="13"/>
+      <c r="EL3" s="13"/>
+      <c r="EM3" s="13"/>
+      <c r="EN3" s="13"/>
+      <c r="EO3" s="13"/>
+      <c r="EP3" s="13"/>
+      <c r="EQ3" s="13"/>
+      <c r="ER3" s="13"/>
+      <c r="ES3" s="13"/>
+      <c r="ET3" s="13"/>
+      <c r="EU3" s="13"/>
+      <c r="EV3" s="13"/>
+      <c r="EW3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="EX3" s="18"/>
-      <c r="EY3" s="18"/>
-      <c r="EZ3" s="18"/>
-      <c r="FA3" s="18"/>
-      <c r="FB3" s="18"/>
-      <c r="FC3" s="18"/>
-      <c r="FD3" s="18"/>
-      <c r="FE3" s="18"/>
-      <c r="FF3" s="18"/>
-      <c r="FG3" s="18"/>
-      <c r="FH3" s="18"/>
-      <c r="FI3" s="18"/>
-      <c r="FJ3" s="18"/>
-      <c r="FK3" s="18"/>
-      <c r="FL3" s="18"/>
-      <c r="FM3" s="18"/>
-      <c r="FN3" s="18"/>
-      <c r="FO3" s="18"/>
-      <c r="FP3" s="18"/>
-      <c r="FQ3" s="18"/>
-      <c r="FR3" s="18"/>
-      <c r="FS3" s="18"/>
-      <c r="FT3" s="18"/>
-      <c r="FU3" s="18"/>
-      <c r="FV3" s="18"/>
-      <c r="FW3" s="18"/>
-      <c r="FX3" s="18"/>
-      <c r="FY3" s="18" t="s">
+      <c r="EX3" s="13"/>
+      <c r="EY3" s="13"/>
+      <c r="EZ3" s="13"/>
+      <c r="FA3" s="13"/>
+      <c r="FB3" s="13"/>
+      <c r="FC3" s="13"/>
+      <c r="FD3" s="13"/>
+      <c r="FE3" s="13"/>
+      <c r="FF3" s="13"/>
+      <c r="FG3" s="13"/>
+      <c r="FH3" s="13"/>
+      <c r="FI3" s="13"/>
+      <c r="FJ3" s="13"/>
+      <c r="FK3" s="13"/>
+      <c r="FL3" s="13"/>
+      <c r="FM3" s="13"/>
+      <c r="FN3" s="13"/>
+      <c r="FO3" s="13"/>
+      <c r="FP3" s="13"/>
+      <c r="FQ3" s="13"/>
+      <c r="FR3" s="13"/>
+      <c r="FS3" s="13"/>
+      <c r="FT3" s="13"/>
+      <c r="FU3" s="13"/>
+      <c r="FV3" s="13"/>
+      <c r="FW3" s="13"/>
+      <c r="FX3" s="13"/>
+      <c r="FY3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="FZ3" s="18"/>
-      <c r="GA3" s="18"/>
-      <c r="GB3" s="18"/>
-      <c r="GC3" s="18"/>
-      <c r="GD3" s="18"/>
-      <c r="GE3" s="18"/>
-      <c r="GF3" s="18"/>
-      <c r="GG3" s="18"/>
-      <c r="GH3" s="18"/>
-      <c r="GI3" s="18"/>
-      <c r="GJ3" s="18"/>
-      <c r="GK3" s="18"/>
-      <c r="GL3" s="18"/>
-      <c r="GM3" s="18"/>
-      <c r="GN3" s="18"/>
-      <c r="GO3" s="18"/>
-      <c r="GP3" s="18"/>
-      <c r="GQ3" s="18"/>
-      <c r="GR3" s="18"/>
-      <c r="GS3" s="18"/>
-      <c r="GT3" s="18"/>
-      <c r="GU3" s="18"/>
-      <c r="GV3" s="18"/>
-      <c r="GW3" s="18"/>
-      <c r="GX3" s="18"/>
-      <c r="GY3" s="18"/>
-      <c r="GZ3" s="18"/>
-      <c r="HA3" s="18"/>
-      <c r="HB3" s="18"/>
-      <c r="HC3" s="18"/>
-      <c r="HD3" s="18" t="s">
+      <c r="FZ3" s="13"/>
+      <c r="GA3" s="13"/>
+      <c r="GB3" s="13"/>
+      <c r="GC3" s="13"/>
+      <c r="GD3" s="13"/>
+      <c r="GE3" s="13"/>
+      <c r="GF3" s="13"/>
+      <c r="GG3" s="13"/>
+      <c r="GH3" s="13"/>
+      <c r="GI3" s="13"/>
+      <c r="GJ3" s="13"/>
+      <c r="GK3" s="13"/>
+      <c r="GL3" s="13"/>
+      <c r="GM3" s="13"/>
+      <c r="GN3" s="13"/>
+      <c r="GO3" s="13"/>
+      <c r="GP3" s="13"/>
+      <c r="GQ3" s="13"/>
+      <c r="GR3" s="13"/>
+      <c r="GS3" s="13"/>
+      <c r="GT3" s="13"/>
+      <c r="GU3" s="13"/>
+      <c r="GV3" s="13"/>
+      <c r="GW3" s="13"/>
+      <c r="GX3" s="13"/>
+      <c r="GY3" s="13"/>
+      <c r="GZ3" s="13"/>
+      <c r="HA3" s="13"/>
+      <c r="HB3" s="13"/>
+      <c r="HC3" s="13"/>
+      <c r="HD3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="HE3" s="18"/>
-      <c r="HF3" s="18"/>
-      <c r="HG3" s="18"/>
-      <c r="HH3" s="18"/>
-      <c r="HI3" s="18"/>
-      <c r="HJ3" s="18"/>
-      <c r="HK3" s="18"/>
-      <c r="HL3" s="18"/>
-      <c r="HM3" s="18"/>
-      <c r="HN3" s="18"/>
-      <c r="HO3" s="18"/>
-      <c r="HP3" s="18"/>
-      <c r="HQ3" s="18"/>
-      <c r="HR3" s="18"/>
-      <c r="HS3" s="18"/>
-      <c r="HT3" s="18"/>
-      <c r="HU3" s="18"/>
-      <c r="HV3" s="18"/>
-      <c r="HW3" s="18"/>
-      <c r="HX3" s="18"/>
-      <c r="HY3" s="18"/>
-      <c r="HZ3" s="18"/>
-      <c r="IA3" s="18"/>
-      <c r="IB3" s="18"/>
-      <c r="IC3" s="18"/>
-      <c r="ID3" s="18"/>
-      <c r="IE3" s="18"/>
-      <c r="IF3" s="18"/>
-      <c r="IG3" s="18"/>
-      <c r="IH3" s="18" t="s">
+      <c r="HE3" s="13"/>
+      <c r="HF3" s="13"/>
+      <c r="HG3" s="13"/>
+      <c r="HH3" s="13"/>
+      <c r="HI3" s="13"/>
+      <c r="HJ3" s="13"/>
+      <c r="HK3" s="13"/>
+      <c r="HL3" s="13"/>
+      <c r="HM3" s="13"/>
+      <c r="HN3" s="13"/>
+      <c r="HO3" s="13"/>
+      <c r="HP3" s="13"/>
+      <c r="HQ3" s="13"/>
+      <c r="HR3" s="13"/>
+      <c r="HS3" s="13"/>
+      <c r="HT3" s="13"/>
+      <c r="HU3" s="13"/>
+      <c r="HV3" s="13"/>
+      <c r="HW3" s="13"/>
+      <c r="HX3" s="13"/>
+      <c r="HY3" s="13"/>
+      <c r="HZ3" s="13"/>
+      <c r="IA3" s="13"/>
+      <c r="IB3" s="13"/>
+      <c r="IC3" s="13"/>
+      <c r="ID3" s="13"/>
+      <c r="IE3" s="13"/>
+      <c r="IF3" s="13"/>
+      <c r="IG3" s="13"/>
+      <c r="IH3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="II3" s="18"/>
-      <c r="IJ3" s="18"/>
-      <c r="IK3" s="18"/>
-      <c r="IL3" s="18"/>
-      <c r="IM3" s="18"/>
-      <c r="IN3" s="18"/>
-      <c r="IO3" s="18"/>
-      <c r="IP3" s="18"/>
-      <c r="IQ3" s="18"/>
-      <c r="IR3" s="18"/>
-      <c r="IS3" s="18"/>
-      <c r="IT3" s="18"/>
-      <c r="IU3" s="18"/>
-      <c r="IV3" s="18"/>
-      <c r="IW3" s="18"/>
-      <c r="IX3" s="18"/>
-      <c r="IY3" s="18"/>
-      <c r="IZ3" s="18"/>
-      <c r="JA3" s="18"/>
-      <c r="JB3" s="18"/>
-      <c r="JC3" s="18"/>
-      <c r="JD3" s="18"/>
-      <c r="JE3" s="18"/>
-      <c r="JF3" s="18"/>
-      <c r="JG3" s="18"/>
-      <c r="JH3" s="18"/>
-      <c r="JI3" s="18"/>
-      <c r="JJ3" s="18"/>
-      <c r="JK3" s="18"/>
-      <c r="JL3" s="18"/>
+      <c r="II3" s="13"/>
+      <c r="IJ3" s="13"/>
+      <c r="IK3" s="13"/>
+      <c r="IL3" s="13"/>
+      <c r="IM3" s="13"/>
+      <c r="IN3" s="13"/>
+      <c r="IO3" s="13"/>
+      <c r="IP3" s="13"/>
+      <c r="IQ3" s="13"/>
+      <c r="IR3" s="13"/>
+      <c r="IS3" s="13"/>
+      <c r="IT3" s="13"/>
+      <c r="IU3" s="13"/>
+      <c r="IV3" s="13"/>
+      <c r="IW3" s="13"/>
+      <c r="IX3" s="13"/>
+      <c r="IY3" s="13"/>
+      <c r="IZ3" s="13"/>
+      <c r="JA3" s="13"/>
+      <c r="JB3" s="13"/>
+      <c r="JC3" s="13"/>
+      <c r="JD3" s="13"/>
+      <c r="JE3" s="13"/>
+      <c r="JF3" s="13"/>
+      <c r="JG3" s="13"/>
+      <c r="JH3" s="13"/>
+      <c r="JI3" s="13"/>
+      <c r="JJ3" s="13"/>
+      <c r="JK3" s="13"/>
+      <c r="JL3" s="13"/>
     </row>
-    <row r="4" spans="3:272" x14ac:dyDescent="0.3">
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="18" t="s">
+    <row r="4" spans="3:272">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18" t="s">
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18" t="s">
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18" t="s">
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18" t="s">
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AX4" s="18"/>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="18"/>
-      <c r="BA4" s="18"/>
-      <c r="BB4" s="18"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="18" t="s">
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BE4" s="18"/>
-      <c r="BF4" s="18"/>
-      <c r="BG4" s="18"/>
-      <c r="BH4" s="18"/>
-      <c r="BI4" s="18"/>
-      <c r="BJ4" s="18"/>
-      <c r="BK4" s="18" t="s">
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="13"/>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="13"/>
+      <c r="BK4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="BL4" s="18"/>
-      <c r="BM4" s="18"/>
-      <c r="BN4" s="18"/>
-      <c r="BO4" s="18"/>
-      <c r="BP4" s="18"/>
-      <c r="BQ4" s="18"/>
-      <c r="BR4" s="18" t="s">
+      <c r="BL4" s="13"/>
+      <c r="BM4" s="13"/>
+      <c r="BN4" s="13"/>
+      <c r="BO4" s="13"/>
+      <c r="BP4" s="13"/>
+      <c r="BQ4" s="13"/>
+      <c r="BR4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="BS4" s="18"/>
-      <c r="BT4" s="18"/>
-      <c r="BU4" s="18"/>
-      <c r="BV4" s="18"/>
-      <c r="BW4" s="18"/>
-      <c r="BX4" s="18"/>
-      <c r="BY4" s="18" t="s">
+      <c r="BS4" s="13"/>
+      <c r="BT4" s="13"/>
+      <c r="BU4" s="13"/>
+      <c r="BV4" s="13"/>
+      <c r="BW4" s="13"/>
+      <c r="BX4" s="13"/>
+      <c r="BY4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="BZ4" s="18"/>
-      <c r="CA4" s="18"/>
-      <c r="CB4" s="18"/>
-      <c r="CC4" s="18"/>
-      <c r="CD4" s="18"/>
-      <c r="CE4" s="18"/>
-      <c r="CF4" s="18" t="s">
+      <c r="BZ4" s="13"/>
+      <c r="CA4" s="13"/>
+      <c r="CB4" s="13"/>
+      <c r="CC4" s="13"/>
+      <c r="CD4" s="13"/>
+      <c r="CE4" s="13"/>
+      <c r="CF4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="CG4" s="18"/>
-      <c r="CH4" s="18"/>
-      <c r="CI4" s="18"/>
-      <c r="CJ4" s="18"/>
-      <c r="CK4" s="18"/>
-      <c r="CL4" s="18"/>
-      <c r="CM4" s="18" t="s">
+      <c r="CG4" s="13"/>
+      <c r="CH4" s="13"/>
+      <c r="CI4" s="13"/>
+      <c r="CJ4" s="13"/>
+      <c r="CK4" s="13"/>
+      <c r="CL4" s="13"/>
+      <c r="CM4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="CN4" s="18"/>
-      <c r="CO4" s="18"/>
-      <c r="CP4" s="18"/>
-      <c r="CQ4" s="18"/>
-      <c r="CR4" s="18"/>
-      <c r="CS4" s="18"/>
-      <c r="CT4" s="18" t="s">
+      <c r="CN4" s="13"/>
+      <c r="CO4" s="13"/>
+      <c r="CP4" s="13"/>
+      <c r="CQ4" s="13"/>
+      <c r="CR4" s="13"/>
+      <c r="CS4" s="13"/>
+      <c r="CT4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="CU4" s="18"/>
-      <c r="CV4" s="18"/>
-      <c r="CW4" s="18"/>
-      <c r="CX4" s="18"/>
-      <c r="CY4" s="18"/>
-      <c r="CZ4" s="18"/>
-      <c r="DA4" s="18" t="s">
+      <c r="CU4" s="13"/>
+      <c r="CV4" s="13"/>
+      <c r="CW4" s="13"/>
+      <c r="CX4" s="13"/>
+      <c r="CY4" s="13"/>
+      <c r="CZ4" s="13"/>
+      <c r="DA4" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="DB4" s="18"/>
-      <c r="DC4" s="18"/>
-      <c r="DD4" s="18"/>
-      <c r="DE4" s="18"/>
-      <c r="DF4" s="18"/>
-      <c r="DG4" s="18"/>
-      <c r="DH4" s="18" t="s">
+      <c r="DB4" s="13"/>
+      <c r="DC4" s="13"/>
+      <c r="DD4" s="13"/>
+      <c r="DE4" s="13"/>
+      <c r="DF4" s="13"/>
+      <c r="DG4" s="13"/>
+      <c r="DH4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="DI4" s="18"/>
-      <c r="DJ4" s="18"/>
-      <c r="DK4" s="18"/>
-      <c r="DL4" s="18"/>
-      <c r="DM4" s="18"/>
-      <c r="DN4" s="18"/>
-      <c r="DO4" s="18" t="s">
+      <c r="DI4" s="13"/>
+      <c r="DJ4" s="13"/>
+      <c r="DK4" s="13"/>
+      <c r="DL4" s="13"/>
+      <c r="DM4" s="13"/>
+      <c r="DN4" s="13"/>
+      <c r="DO4" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="DP4" s="18"/>
-      <c r="DQ4" s="18"/>
-      <c r="DR4" s="18"/>
-      <c r="DS4" s="18"/>
-      <c r="DT4" s="18"/>
-      <c r="DU4" s="18"/>
-      <c r="DV4" s="18" t="s">
+      <c r="DP4" s="13"/>
+      <c r="DQ4" s="13"/>
+      <c r="DR4" s="13"/>
+      <c r="DS4" s="13"/>
+      <c r="DT4" s="13"/>
+      <c r="DU4" s="13"/>
+      <c r="DV4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="DW4" s="18"/>
-      <c r="DX4" s="18"/>
-      <c r="DY4" s="18"/>
-      <c r="DZ4" s="18"/>
-      <c r="EA4" s="18"/>
-      <c r="EB4" s="18"/>
-      <c r="EC4" s="18" t="s">
+      <c r="DW4" s="13"/>
+      <c r="DX4" s="13"/>
+      <c r="DY4" s="13"/>
+      <c r="DZ4" s="13"/>
+      <c r="EA4" s="13"/>
+      <c r="EB4" s="13"/>
+      <c r="EC4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="ED4" s="18"/>
-      <c r="EE4" s="18"/>
-      <c r="EF4" s="18"/>
-      <c r="EG4" s="18"/>
-      <c r="EH4" s="18"/>
-      <c r="EI4" s="18"/>
-      <c r="EJ4" s="18" t="s">
+      <c r="ED4" s="13"/>
+      <c r="EE4" s="13"/>
+      <c r="EF4" s="13"/>
+      <c r="EG4" s="13"/>
+      <c r="EH4" s="13"/>
+      <c r="EI4" s="13"/>
+      <c r="EJ4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="EK4" s="18"/>
-      <c r="EL4" s="18"/>
-      <c r="EM4" s="18"/>
-      <c r="EN4" s="18"/>
-      <c r="EO4" s="18"/>
-      <c r="EP4" s="18"/>
-      <c r="EQ4" s="18" t="s">
+      <c r="EK4" s="13"/>
+      <c r="EL4" s="13"/>
+      <c r="EM4" s="13"/>
+      <c r="EN4" s="13"/>
+      <c r="EO4" s="13"/>
+      <c r="EP4" s="13"/>
+      <c r="EQ4" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="ER4" s="18"/>
-      <c r="ES4" s="18"/>
-      <c r="ET4" s="18"/>
-      <c r="EU4" s="18"/>
-      <c r="EV4" s="18"/>
-      <c r="EW4" s="18"/>
-      <c r="EX4" s="18" t="s">
+      <c r="ER4" s="13"/>
+      <c r="ES4" s="13"/>
+      <c r="ET4" s="13"/>
+      <c r="EU4" s="13"/>
+      <c r="EV4" s="13"/>
+      <c r="EW4" s="13"/>
+      <c r="EX4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="EY4" s="18"/>
-      <c r="EZ4" s="18"/>
-      <c r="FA4" s="18"/>
-      <c r="FB4" s="18"/>
-      <c r="FC4" s="18"/>
-      <c r="FD4" s="18"/>
-      <c r="FE4" s="18" t="s">
+      <c r="EY4" s="13"/>
+      <c r="EZ4" s="13"/>
+      <c r="FA4" s="13"/>
+      <c r="FB4" s="13"/>
+      <c r="FC4" s="13"/>
+      <c r="FD4" s="13"/>
+      <c r="FE4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="FF4" s="18"/>
-      <c r="FG4" s="18"/>
-      <c r="FH4" s="18"/>
-      <c r="FI4" s="18"/>
-      <c r="FJ4" s="18"/>
-      <c r="FK4" s="18"/>
-      <c r="FL4" s="18" t="s">
+      <c r="FF4" s="13"/>
+      <c r="FG4" s="13"/>
+      <c r="FH4" s="13"/>
+      <c r="FI4" s="13"/>
+      <c r="FJ4" s="13"/>
+      <c r="FK4" s="13"/>
+      <c r="FL4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="FM4" s="18"/>
-      <c r="FN4" s="18"/>
-      <c r="FO4" s="18"/>
-      <c r="FP4" s="18"/>
-      <c r="FQ4" s="18"/>
-      <c r="FR4" s="18"/>
-      <c r="FS4" s="18" t="s">
+      <c r="FM4" s="13"/>
+      <c r="FN4" s="13"/>
+      <c r="FO4" s="13"/>
+      <c r="FP4" s="13"/>
+      <c r="FQ4" s="13"/>
+      <c r="FR4" s="13"/>
+      <c r="FS4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="FT4" s="18"/>
-      <c r="FU4" s="18"/>
-      <c r="FV4" s="18"/>
-      <c r="FW4" s="18"/>
-      <c r="FX4" s="18"/>
-      <c r="FY4" s="18"/>
-      <c r="FZ4" s="18" t="s">
+      <c r="FT4" s="13"/>
+      <c r="FU4" s="13"/>
+      <c r="FV4" s="13"/>
+      <c r="FW4" s="13"/>
+      <c r="FX4" s="13"/>
+      <c r="FY4" s="13"/>
+      <c r="FZ4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="GA4" s="18"/>
-      <c r="GB4" s="18"/>
-      <c r="GC4" s="18"/>
-      <c r="GD4" s="18"/>
-      <c r="GE4" s="18"/>
-      <c r="GF4" s="18"/>
-      <c r="GG4" s="18" t="s">
+      <c r="GA4" s="13"/>
+      <c r="GB4" s="13"/>
+      <c r="GC4" s="13"/>
+      <c r="GD4" s="13"/>
+      <c r="GE4" s="13"/>
+      <c r="GF4" s="13"/>
+      <c r="GG4" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="GH4" s="18"/>
-      <c r="GI4" s="18"/>
-      <c r="GJ4" s="18"/>
-      <c r="GK4" s="18"/>
-      <c r="GL4" s="18"/>
-      <c r="GM4" s="18"/>
-      <c r="GN4" s="18" t="s">
+      <c r="GH4" s="13"/>
+      <c r="GI4" s="13"/>
+      <c r="GJ4" s="13"/>
+      <c r="GK4" s="13"/>
+      <c r="GL4" s="13"/>
+      <c r="GM4" s="13"/>
+      <c r="GN4" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="GO4" s="18"/>
-      <c r="GP4" s="18"/>
-      <c r="GQ4" s="18"/>
-      <c r="GR4" s="18"/>
-      <c r="GS4" s="18"/>
-      <c r="GT4" s="18"/>
-      <c r="GU4" s="18" t="s">
+      <c r="GO4" s="13"/>
+      <c r="GP4" s="13"/>
+      <c r="GQ4" s="13"/>
+      <c r="GR4" s="13"/>
+      <c r="GS4" s="13"/>
+      <c r="GT4" s="13"/>
+      <c r="GU4" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="GV4" s="18"/>
-      <c r="GW4" s="18"/>
-      <c r="GX4" s="18"/>
-      <c r="GY4" s="18"/>
-      <c r="GZ4" s="18"/>
-      <c r="HA4" s="18"/>
-      <c r="HB4" s="18" t="s">
+      <c r="GV4" s="13"/>
+      <c r="GW4" s="13"/>
+      <c r="GX4" s="13"/>
+      <c r="GY4" s="13"/>
+      <c r="GZ4" s="13"/>
+      <c r="HA4" s="13"/>
+      <c r="HB4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="HC4" s="18"/>
-      <c r="HD4" s="18"/>
-      <c r="HE4" s="18"/>
-      <c r="HF4" s="18"/>
-      <c r="HG4" s="18"/>
-      <c r="HH4" s="18"/>
-      <c r="HI4" s="18" t="s">
+      <c r="HC4" s="13"/>
+      <c r="HD4" s="13"/>
+      <c r="HE4" s="13"/>
+      <c r="HF4" s="13"/>
+      <c r="HG4" s="13"/>
+      <c r="HH4" s="13"/>
+      <c r="HI4" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="HJ4" s="18"/>
-      <c r="HK4" s="18"/>
-      <c r="HL4" s="18"/>
-      <c r="HM4" s="18"/>
-      <c r="HN4" s="18"/>
-      <c r="HO4" s="18"/>
-      <c r="HP4" s="18" t="s">
+      <c r="HJ4" s="13"/>
+      <c r="HK4" s="13"/>
+      <c r="HL4" s="13"/>
+      <c r="HM4" s="13"/>
+      <c r="HN4" s="13"/>
+      <c r="HO4" s="13"/>
+      <c r="HP4" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="HQ4" s="18"/>
-      <c r="HR4" s="18"/>
-      <c r="HS4" s="18"/>
-      <c r="HT4" s="18"/>
-      <c r="HU4" s="18"/>
-      <c r="HV4" s="18"/>
-      <c r="HW4" s="18" t="s">
+      <c r="HQ4" s="13"/>
+      <c r="HR4" s="13"/>
+      <c r="HS4" s="13"/>
+      <c r="HT4" s="13"/>
+      <c r="HU4" s="13"/>
+      <c r="HV4" s="13"/>
+      <c r="HW4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="HX4" s="18"/>
-      <c r="HY4" s="18"/>
-      <c r="HZ4" s="18"/>
-      <c r="IA4" s="18"/>
-      <c r="IB4" s="18"/>
-      <c r="IC4" s="18"/>
-      <c r="ID4" s="18" t="s">
+      <c r="HX4" s="13"/>
+      <c r="HY4" s="13"/>
+      <c r="HZ4" s="13"/>
+      <c r="IA4" s="13"/>
+      <c r="IB4" s="13"/>
+      <c r="IC4" s="13"/>
+      <c r="ID4" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="IE4" s="18"/>
-      <c r="IF4" s="18"/>
-      <c r="IG4" s="18"/>
-      <c r="IH4" s="18"/>
-      <c r="II4" s="18"/>
-      <c r="IJ4" s="18"/>
-      <c r="IK4" s="18" t="s">
+      <c r="IE4" s="13"/>
+      <c r="IF4" s="13"/>
+      <c r="IG4" s="13"/>
+      <c r="IH4" s="13"/>
+      <c r="II4" s="13"/>
+      <c r="IJ4" s="13"/>
+      <c r="IK4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="IL4" s="18"/>
-      <c r="IM4" s="18"/>
-      <c r="IN4" s="18"/>
-      <c r="IO4" s="18"/>
-      <c r="IP4" s="18"/>
-      <c r="IQ4" s="18"/>
-      <c r="IR4" s="18" t="s">
+      <c r="IL4" s="13"/>
+      <c r="IM4" s="13"/>
+      <c r="IN4" s="13"/>
+      <c r="IO4" s="13"/>
+      <c r="IP4" s="13"/>
+      <c r="IQ4" s="13"/>
+      <c r="IR4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="IS4" s="18"/>
-      <c r="IT4" s="18"/>
-      <c r="IU4" s="18"/>
-      <c r="IV4" s="18"/>
-      <c r="IW4" s="18"/>
-      <c r="IX4" s="18"/>
-      <c r="IY4" s="18" t="s">
+      <c r="IS4" s="13"/>
+      <c r="IT4" s="13"/>
+      <c r="IU4" s="13"/>
+      <c r="IV4" s="13"/>
+      <c r="IW4" s="13"/>
+      <c r="IX4" s="13"/>
+      <c r="IY4" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="IZ4" s="18"/>
-      <c r="JA4" s="18"/>
-      <c r="JB4" s="18"/>
-      <c r="JC4" s="18"/>
-      <c r="JD4" s="18"/>
-      <c r="JE4" s="18"/>
-      <c r="JF4" s="18" t="s">
+      <c r="IZ4" s="13"/>
+      <c r="JA4" s="13"/>
+      <c r="JB4" s="13"/>
+      <c r="JC4" s="13"/>
+      <c r="JD4" s="13"/>
+      <c r="JE4" s="13"/>
+      <c r="JF4" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="JG4" s="18"/>
-      <c r="JH4" s="18"/>
-      <c r="JI4" s="18"/>
-      <c r="JJ4" s="18"/>
-      <c r="JK4" s="18"/>
-      <c r="JL4" s="18"/>
+      <c r="JG4" s="13"/>
+      <c r="JH4" s="13"/>
+      <c r="JI4" s="13"/>
+      <c r="JJ4" s="13"/>
+      <c r="JK4" s="13"/>
+      <c r="JL4" s="13"/>
     </row>
-    <row r="5" spans="3:272" x14ac:dyDescent="0.3">
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
+    <row r="5" spans="3:272">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="1" t="s">
         <v>73</v>
       </c>
@@ -2436,10 +2451,10 @@
       <c r="L5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -2457,10 +2472,10 @@
       <c r="S5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -2478,10 +2493,10 @@
       <c r="Z5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AB5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AC5" s="1" t="s">
@@ -2499,10 +2514,10 @@
       <c r="AG5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AH5" s="15" t="s">
+      <c r="AH5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AI5" s="16" t="s">
+      <c r="AI5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AJ5" s="1" t="s">
@@ -2520,10 +2535,10 @@
       <c r="AN5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AO5" s="15" t="s">
+      <c r="AO5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AP5" s="16" t="s">
+      <c r="AP5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AQ5" s="1" t="s">
@@ -2541,10 +2556,10 @@
       <c r="AU5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AV5" s="15" t="s">
+      <c r="AV5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AW5" s="16" t="s">
+      <c r="AW5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AX5" s="1" t="s">
@@ -2562,10 +2577,10 @@
       <c r="BB5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BC5" s="15" t="s">
+      <c r="BC5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="BD5" s="16" t="s">
+      <c r="BD5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="BE5" s="1" t="s">
@@ -2583,10 +2598,10 @@
       <c r="BI5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BJ5" s="15" t="s">
+      <c r="BJ5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="BK5" s="16" t="s">
+      <c r="BK5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="BL5" s="1" t="s">
@@ -2604,10 +2619,10 @@
       <c r="BP5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BQ5" s="15" t="s">
+      <c r="BQ5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="BR5" s="16" t="s">
+      <c r="BR5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="BS5" s="1" t="s">
@@ -2625,10 +2640,10 @@
       <c r="BW5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BX5" s="15" t="s">
+      <c r="BX5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="BY5" s="16" t="s">
+      <c r="BY5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="BZ5" s="1" t="s">
@@ -2646,10 +2661,10 @@
       <c r="CD5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CE5" s="15" t="s">
+      <c r="CE5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CF5" s="16" t="s">
+      <c r="CF5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="CG5" s="1" t="s">
@@ -2667,10 +2682,10 @@
       <c r="CK5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CL5" s="15" t="s">
+      <c r="CL5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CM5" s="16" t="s">
+      <c r="CM5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="CN5" s="1" t="s">
@@ -2688,10 +2703,10 @@
       <c r="CR5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CS5" s="15" t="s">
+      <c r="CS5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CT5" s="16" t="s">
+      <c r="CT5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="CU5" s="1" t="s">
@@ -2709,10 +2724,10 @@
       <c r="CY5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CZ5" s="15" t="s">
+      <c r="CZ5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="DA5" s="16" t="s">
+      <c r="DA5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="DB5" s="1" t="s">
@@ -2730,10 +2745,10 @@
       <c r="DF5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="DG5" s="15" t="s">
+      <c r="DG5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="DH5" s="16" t="s">
+      <c r="DH5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="DI5" s="1" t="s">
@@ -2751,10 +2766,10 @@
       <c r="DM5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="DN5" s="15" t="s">
+      <c r="DN5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="DO5" s="16" t="s">
+      <c r="DO5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="DP5" s="1" t="s">
@@ -2772,10 +2787,10 @@
       <c r="DT5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="DU5" s="15" t="s">
+      <c r="DU5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="DV5" s="16" t="s">
+      <c r="DV5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="DW5" s="1" t="s">
@@ -2793,10 +2808,10 @@
       <c r="EA5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="EB5" s="15" t="s">
+      <c r="EB5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="EC5" s="16" t="s">
+      <c r="EC5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="ED5" s="1" t="s">
@@ -2814,10 +2829,10 @@
       <c r="EH5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="EI5" s="15" t="s">
+      <c r="EI5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="EJ5" s="16" t="s">
+      <c r="EJ5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="EK5" s="1" t="s">
@@ -2835,10 +2850,10 @@
       <c r="EO5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="EP5" s="15" t="s">
+      <c r="EP5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="EQ5" s="16" t="s">
+      <c r="EQ5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="ER5" s="1" t="s">
@@ -2856,10 +2871,10 @@
       <c r="EV5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="EW5" s="15" t="s">
+      <c r="EW5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="EX5" s="16" t="s">
+      <c r="EX5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="EY5" s="1" t="s">
@@ -2877,10 +2892,10 @@
       <c r="FC5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="FD5" s="15" t="s">
+      <c r="FD5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="FE5" s="16" t="s">
+      <c r="FE5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="FF5" s="1" t="s">
@@ -2898,10 +2913,10 @@
       <c r="FJ5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="FK5" s="15" t="s">
+      <c r="FK5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="FL5" s="16" t="s">
+      <c r="FL5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="FM5" s="1" t="s">
@@ -2919,10 +2934,10 @@
       <c r="FQ5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="FR5" s="15" t="s">
+      <c r="FR5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="FS5" s="16" t="s">
+      <c r="FS5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="FT5" s="1" t="s">
@@ -2940,10 +2955,10 @@
       <c r="FX5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="FY5" s="15" t="s">
+      <c r="FY5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="FZ5" s="16" t="s">
+      <c r="FZ5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="GA5" s="1" t="s">
@@ -2961,10 +2976,10 @@
       <c r="GE5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="GF5" s="15" t="s">
+      <c r="GF5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="GG5" s="16" t="s">
+      <c r="GG5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="GH5" s="1" t="s">
@@ -2982,10 +2997,10 @@
       <c r="GL5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="GM5" s="15" t="s">
+      <c r="GM5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="GN5" s="16" t="s">
+      <c r="GN5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="GO5" s="1" t="s">
@@ -3003,10 +3018,10 @@
       <c r="GS5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="GT5" s="15" t="s">
+      <c r="GT5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="GU5" s="16" t="s">
+      <c r="GU5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="GV5" s="1" t="s">
@@ -3024,10 +3039,10 @@
       <c r="GZ5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="HA5" s="15" t="s">
+      <c r="HA5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="HB5" s="16" t="s">
+      <c r="HB5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="HC5" s="1" t="s">
@@ -3045,10 +3060,10 @@
       <c r="HG5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="HH5" s="15" t="s">
+      <c r="HH5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="HI5" s="16" t="s">
+      <c r="HI5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="HJ5" s="1" t="s">
@@ -3066,10 +3081,10 @@
       <c r="HN5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="HO5" s="15" t="s">
+      <c r="HO5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="HP5" s="16" t="s">
+      <c r="HP5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="HQ5" s="1" t="s">
@@ -3087,10 +3102,10 @@
       <c r="HU5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="HV5" s="15" t="s">
+      <c r="HV5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="HW5" s="16" t="s">
+      <c r="HW5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="HX5" s="1" t="s">
@@ -3108,10 +3123,10 @@
       <c r="IB5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="IC5" s="15" t="s">
+      <c r="IC5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="ID5" s="16" t="s">
+      <c r="ID5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="IE5" s="1" t="s">
@@ -3129,10 +3144,10 @@
       <c r="II5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="IJ5" s="15" t="s">
+      <c r="IJ5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="IK5" s="16" t="s">
+      <c r="IK5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="IL5" s="1" t="s">
@@ -3150,10 +3165,10 @@
       <c r="IP5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="IQ5" s="15" t="s">
+      <c r="IQ5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="IR5" s="16" t="s">
+      <c r="IR5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="IS5" s="1" t="s">
@@ -3171,10 +3186,10 @@
       <c r="IW5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="IX5" s="15" t="s">
+      <c r="IX5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="IY5" s="16" t="s">
+      <c r="IY5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="IZ5" s="1" t="s">
@@ -3192,10 +3207,10 @@
       <c r="JD5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="JE5" s="15" t="s">
+      <c r="JE5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="JF5" s="16" t="s">
+      <c r="JF5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="JG5" s="1" t="s">
@@ -3213,17 +3228,17 @@
       <c r="JK5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="JL5" s="15" t="s">
+      <c r="JL5" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="3:272" x14ac:dyDescent="0.3">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
+    <row r="6" spans="3:272">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="1">
         <v>10</v>
       </c>
@@ -4017,53 +4032,53 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="3:272" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="3:272">
+      <c r="C7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="8">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="7">
         <v>41527</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>41560</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
@@ -4295,13 +4310,13 @@
       <c r="JK7" s="1"/>
       <c r="JL7" s="1"/>
     </row>
-    <row r="8" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="13"/>
-      <c r="D8" s="9" t="s">
+    <row r="8" spans="3:272" outlineLevel="1">
+      <c r="C8" s="17"/>
+      <c r="D8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="6">
         <v>41527</v>
       </c>
@@ -4573,13 +4588,13 @@
       <c r="JK8" s="1"/>
       <c r="JL8" s="1"/>
     </row>
-    <row r="9" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="13"/>
-      <c r="D9" s="9" t="s">
+    <row r="9" spans="3:272" outlineLevel="1">
+      <c r="C9" s="17"/>
+      <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="6">
         <v>41530</v>
       </c>
@@ -4851,13 +4866,13 @@
       <c r="JK9" s="1"/>
       <c r="JL9" s="1"/>
     </row>
-    <row r="10" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="9" t="s">
+    <row r="10" spans="3:272" outlineLevel="1">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="4">
         <v>41530</v>
       </c>
@@ -4867,20 +4882,20 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -5129,13 +5144,13 @@
       <c r="JK10" s="1"/>
       <c r="JL10" s="1"/>
     </row>
-    <row r="11" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="9" t="s">
+    <row r="11" spans="3:272" outlineLevel="1">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="4">
         <v>41537</v>
       </c>
@@ -5152,13 +5167,13 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -5407,13 +5422,13 @@
       <c r="JK11" s="1"/>
       <c r="JL11" s="1"/>
     </row>
-    <row r="12" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="9" t="s">
+    <row r="12" spans="3:272" outlineLevel="1">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="4">
         <v>41540</v>
       </c>
@@ -5433,23 +5448,23 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
@@ -5685,13 +5700,13 @@
       <c r="JK12" s="1"/>
       <c r="JL12" s="1"/>
     </row>
-    <row r="13" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="9" t="s">
+    <row r="13" spans="3:272" outlineLevel="1">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="4">
         <v>41557</v>
       </c>
@@ -5728,10 +5743,10 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
@@ -5963,17 +5978,17 @@
       <c r="JK13" s="1"/>
       <c r="JL13" s="1"/>
     </row>
-    <row r="14" spans="3:272" x14ac:dyDescent="0.3">
-      <c r="C14" s="14" t="s">
+    <row r="14" spans="3:272">
+      <c r="C14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="8">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="7">
         <v>41561</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>41581</v>
       </c>
       <c r="I14" s="1"/>
@@ -6010,27 +6025,27 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="10"/>
+      <c r="BF14" s="10"/>
+      <c r="BG14" s="10"/>
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="10"/>
       <c r="BL14" s="1"/>
       <c r="BM14" s="1"/>
       <c r="BN14" s="1"/>
@@ -6241,13 +6256,13 @@
       <c r="JK14" s="1"/>
       <c r="JL14" s="1"/>
     </row>
-    <row r="15" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="13"/>
-      <c r="D15" s="9" t="s">
+    <row r="15" spans="3:272" outlineLevel="1">
+      <c r="C15" s="17"/>
+      <c r="D15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="6">
         <v>41561</v>
       </c>
@@ -6519,13 +6534,13 @@
       <c r="JK15" s="1"/>
       <c r="JL15" s="1"/>
     </row>
-    <row r="16" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="9" t="s">
+    <row r="16" spans="3:272" outlineLevel="1">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="4">
         <v>41561</v>
       </c>
@@ -6566,8 +6581,8 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
@@ -6797,13 +6812,13 @@
       <c r="JK16" s="1"/>
       <c r="JL16" s="1"/>
     </row>
-    <row r="17" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="9" t="s">
+    <row r="17" spans="3:272" outlineLevel="1">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="4">
         <v>41563</v>
       </c>
@@ -6846,11 +6861,11 @@
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
@@ -7075,10 +7090,10 @@
       <c r="JK17" s="1"/>
       <c r="JL17" s="1"/>
     </row>
-    <row r="18" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+    <row r="18" spans="3:272" outlineLevel="1">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
@@ -7124,12 +7139,12 @@
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
-      <c r="AS18" s="20"/>
-      <c r="AT18" s="20"/>
-      <c r="AU18" s="20"/>
-      <c r="AV18" s="20"/>
-      <c r="AW18" s="20"/>
-      <c r="AX18" s="20"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
@@ -7353,10 +7368,10 @@
       <c r="JK18" s="1"/>
       <c r="JL18" s="1"/>
     </row>
-    <row r="19" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+    <row r="19" spans="3:272" outlineLevel="1">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
@@ -7402,12 +7417,12 @@
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
-      <c r="AS19" s="20"/>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="20"/>
-      <c r="AW19" s="20"/>
-      <c r="AX19" s="20"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
@@ -7631,13 +7646,13 @@
       <c r="JK19" s="1"/>
       <c r="JL19" s="1"/>
     </row>
-    <row r="20" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="9" t="s">
+    <row r="20" spans="3:272" outlineLevel="1">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="4">
         <v>41568</v>
       </c>
@@ -7685,8 +7700,8 @@
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
@@ -7909,13 +7924,13 @@
       <c r="JK20" s="1"/>
       <c r="JL20" s="1"/>
     </row>
-    <row r="21" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="9" t="s">
+    <row r="21" spans="3:272" outlineLevel="1">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="4">
         <v>41570</v>
       </c>
@@ -7965,16 +7980,16 @@
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
-      <c r="AZ21" s="19"/>
-      <c r="BA21" s="19"/>
-      <c r="BB21" s="19"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="19"/>
-      <c r="BE21" s="19"/>
-      <c r="BF21" s="19"/>
-      <c r="BG21" s="19"/>
-      <c r="BH21" s="19"/>
-      <c r="BI21" s="19"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
+      <c r="BE21" s="11"/>
+      <c r="BF21" s="11"/>
+      <c r="BG21" s="11"/>
+      <c r="BH21" s="11"/>
+      <c r="BI21" s="11"/>
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
@@ -8187,10 +8202,10 @@
       <c r="JK21" s="1"/>
       <c r="JL21" s="1"/>
     </row>
-    <row r="22" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+    <row r="22" spans="3:272" outlineLevel="1">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="2" t="s">
         <v>13</v>
       </c>
@@ -8465,10 +8480,10 @@
       <c r="JK22" s="1"/>
       <c r="JL22" s="1"/>
     </row>
-    <row r="23" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+    <row r="23" spans="3:272" outlineLevel="1">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="2" t="s">
         <v>14</v>
       </c>
@@ -8743,10 +8758,10 @@
       <c r="JK23" s="1"/>
       <c r="JL23" s="1"/>
     </row>
-    <row r="24" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+    <row r="24" spans="3:272" outlineLevel="1">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="2" t="s">
         <v>15</v>
       </c>
@@ -9021,10 +9036,10 @@
       <c r="JK24" s="1"/>
       <c r="JL24" s="1"/>
     </row>
-    <row r="25" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+    <row r="25" spans="3:272" outlineLevel="1">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
@@ -9299,13 +9314,13 @@
       <c r="JK25" s="1"/>
       <c r="JL25" s="1"/>
     </row>
-    <row r="26" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="9" t="s">
+    <row r="26" spans="3:272" outlineLevel="1">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="4">
         <v>41580</v>
       </c>
@@ -9365,8 +9380,8 @@
       <c r="BG26" s="1"/>
       <c r="BH26" s="1"/>
       <c r="BI26" s="1"/>
-      <c r="BJ26" s="19"/>
-      <c r="BK26" s="19"/>
+      <c r="BJ26" s="11"/>
+      <c r="BK26" s="11"/>
       <c r="BL26" s="1"/>
       <c r="BM26" s="1"/>
       <c r="BN26" s="1"/>
@@ -9577,17 +9592,17 @@
       <c r="JK26" s="1"/>
       <c r="JL26" s="1"/>
     </row>
-    <row r="27" spans="3:272" x14ac:dyDescent="0.3">
-      <c r="C27" s="14" t="s">
+    <row r="27" spans="3:272">
+      <c r="C27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="8">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="7">
         <v>41603</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>41630</v>
       </c>
       <c r="I27" s="1"/>
@@ -9645,55 +9660,55 @@
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
-      <c r="BL27" s="17"/>
-      <c r="BM27" s="17"/>
-      <c r="BN27" s="17"/>
-      <c r="BO27" s="17"/>
-      <c r="BP27" s="17"/>
-      <c r="BQ27" s="17"/>
-      <c r="BR27" s="17"/>
-      <c r="BS27" s="17"/>
-      <c r="BT27" s="17"/>
-      <c r="BU27" s="17"/>
-      <c r="BV27" s="17"/>
-      <c r="BW27" s="17"/>
-      <c r="BX27" s="17"/>
-      <c r="BY27" s="17"/>
-      <c r="BZ27" s="17"/>
-      <c r="CA27" s="17"/>
-      <c r="CB27" s="17"/>
-      <c r="CC27" s="17"/>
-      <c r="CD27" s="17"/>
-      <c r="CE27" s="17"/>
-      <c r="CF27" s="17"/>
-      <c r="CG27" s="17"/>
-      <c r="CH27" s="17"/>
-      <c r="CI27" s="17"/>
-      <c r="CJ27" s="17"/>
-      <c r="CK27" s="17"/>
-      <c r="CL27" s="17"/>
-      <c r="CM27" s="17"/>
-      <c r="CN27" s="17"/>
-      <c r="CO27" s="17"/>
-      <c r="CP27" s="17"/>
-      <c r="CQ27" s="17"/>
-      <c r="CR27" s="17"/>
-      <c r="CS27" s="17"/>
-      <c r="CT27" s="17"/>
-      <c r="CU27" s="17"/>
-      <c r="CV27" s="17"/>
-      <c r="CW27" s="17"/>
-      <c r="CX27" s="17"/>
-      <c r="CY27" s="17"/>
-      <c r="CZ27" s="17"/>
-      <c r="DA27" s="17"/>
-      <c r="DB27" s="17"/>
-      <c r="DC27" s="17"/>
-      <c r="DD27" s="17"/>
-      <c r="DE27" s="17"/>
-      <c r="DF27" s="17"/>
-      <c r="DG27" s="17"/>
-      <c r="DH27" s="17"/>
+      <c r="BL27" s="10"/>
+      <c r="BM27" s="10"/>
+      <c r="BN27" s="10"/>
+      <c r="BO27" s="10"/>
+      <c r="BP27" s="10"/>
+      <c r="BQ27" s="10"/>
+      <c r="BR27" s="10"/>
+      <c r="BS27" s="10"/>
+      <c r="BT27" s="10"/>
+      <c r="BU27" s="10"/>
+      <c r="BV27" s="10"/>
+      <c r="BW27" s="10"/>
+      <c r="BX27" s="10"/>
+      <c r="BY27" s="10"/>
+      <c r="BZ27" s="10"/>
+      <c r="CA27" s="10"/>
+      <c r="CB27" s="10"/>
+      <c r="CC27" s="10"/>
+      <c r="CD27" s="10"/>
+      <c r="CE27" s="10"/>
+      <c r="CF27" s="10"/>
+      <c r="CG27" s="10"/>
+      <c r="CH27" s="10"/>
+      <c r="CI27" s="10"/>
+      <c r="CJ27" s="10"/>
+      <c r="CK27" s="10"/>
+      <c r="CL27" s="10"/>
+      <c r="CM27" s="10"/>
+      <c r="CN27" s="10"/>
+      <c r="CO27" s="10"/>
+      <c r="CP27" s="10"/>
+      <c r="CQ27" s="10"/>
+      <c r="CR27" s="10"/>
+      <c r="CS27" s="10"/>
+      <c r="CT27" s="10"/>
+      <c r="CU27" s="10"/>
+      <c r="CV27" s="10"/>
+      <c r="CW27" s="10"/>
+      <c r="CX27" s="10"/>
+      <c r="CY27" s="10"/>
+      <c r="CZ27" s="10"/>
+      <c r="DA27" s="10"/>
+      <c r="DB27" s="10"/>
+      <c r="DC27" s="10"/>
+      <c r="DD27" s="10"/>
+      <c r="DE27" s="10"/>
+      <c r="DF27" s="10"/>
+      <c r="DG27" s="10"/>
+      <c r="DH27" s="10"/>
       <c r="DI27" s="1"/>
       <c r="DJ27" s="1"/>
       <c r="DK27" s="1"/>
@@ -9855,13 +9870,13 @@
       <c r="JK27" s="1"/>
       <c r="JL27" s="1"/>
     </row>
-    <row r="28" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="13"/>
-      <c r="D28" s="9" t="s">
+    <row r="28" spans="3:272" outlineLevel="1">
+      <c r="C28" s="17"/>
+      <c r="D28" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="6">
         <v>41582</v>
       </c>
@@ -10133,13 +10148,13 @@
       <c r="JK28" s="1"/>
       <c r="JL28" s="1"/>
     </row>
-    <row r="29" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="9" t="s">
+    <row r="29" spans="3:272" outlineLevel="1">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="5">
         <v>41582</v>
       </c>
@@ -10201,8 +10216,8 @@
       <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
-      <c r="BL29" s="19"/>
-      <c r="BM29" s="19"/>
+      <c r="BL29" s="11"/>
+      <c r="BM29" s="11"/>
       <c r="BN29" s="1"/>
       <c r="BO29" s="1"/>
       <c r="BP29" s="1"/>
@@ -10411,13 +10426,13 @@
       <c r="JK29" s="1"/>
       <c r="JL29" s="1"/>
     </row>
-    <row r="30" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="9" t="s">
+    <row r="30" spans="3:272" outlineLevel="1">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="5">
         <v>41583</v>
       </c>
@@ -10480,13 +10495,13 @@
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
       <c r="BL30" s="1"/>
-      <c r="BM30" s="19"/>
-      <c r="BN30" s="19"/>
-      <c r="BO30" s="19"/>
-      <c r="BP30" s="19"/>
-      <c r="BQ30" s="19"/>
-      <c r="BR30" s="19"/>
-      <c r="BS30" s="19"/>
+      <c r="BM30" s="11"/>
+      <c r="BN30" s="11"/>
+      <c r="BO30" s="11"/>
+      <c r="BP30" s="11"/>
+      <c r="BQ30" s="11"/>
+      <c r="BR30" s="11"/>
+      <c r="BS30" s="11"/>
       <c r="BT30" s="1"/>
       <c r="BU30" s="1"/>
       <c r="BV30" s="1"/>
@@ -10689,9 +10704,9 @@
       <c r="JK30" s="1"/>
       <c r="JL30" s="1"/>
     </row>
-    <row r="31" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+    <row r="31" spans="3:272" outlineLevel="1">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
         <v>22</v>
@@ -10967,13 +10982,13 @@
       <c r="JK31" s="1"/>
       <c r="JL31" s="1"/>
     </row>
-    <row r="32" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="9" t="s">
+    <row r="32" spans="3:272" outlineLevel="1">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="5">
         <v>41590</v>
       </c>
@@ -11043,13 +11058,13 @@
       <c r="BQ32" s="1"/>
       <c r="BR32" s="1"/>
       <c r="BS32" s="1"/>
-      <c r="BT32" s="19"/>
-      <c r="BU32" s="19"/>
-      <c r="BV32" s="19"/>
-      <c r="BW32" s="19"/>
-      <c r="BX32" s="19"/>
-      <c r="BY32" s="19"/>
-      <c r="BZ32" s="19"/>
+      <c r="BT32" s="11"/>
+      <c r="BU32" s="11"/>
+      <c r="BV32" s="11"/>
+      <c r="BW32" s="11"/>
+      <c r="BX32" s="11"/>
+      <c r="BY32" s="11"/>
+      <c r="BZ32" s="11"/>
       <c r="CA32" s="1"/>
       <c r="CB32" s="1"/>
       <c r="CC32" s="1"/>
@@ -11245,10 +11260,10 @@
       <c r="JK32" s="1"/>
       <c r="JL32" s="1"/>
     </row>
-    <row r="33" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+    <row r="33" spans="3:272" outlineLevel="1">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="2" t="s">
         <v>24</v>
       </c>
@@ -11523,10 +11538,10 @@
       <c r="JK33" s="1"/>
       <c r="JL33" s="1"/>
     </row>
-    <row r="34" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+    <row r="34" spans="3:272" outlineLevel="1">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="2" t="s">
         <v>25</v>
       </c>
@@ -11801,13 +11816,13 @@
       <c r="JK34" s="1"/>
       <c r="JL34" s="1"/>
     </row>
-    <row r="35" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="9" t="s">
+    <row r="35" spans="3:272" outlineLevel="1">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="5">
         <v>41597</v>
       </c>
@@ -11884,12 +11899,12 @@
       <c r="BX35" s="1"/>
       <c r="BY35" s="1"/>
       <c r="BZ35" s="1"/>
-      <c r="CA35" s="19"/>
-      <c r="CB35" s="19"/>
-      <c r="CC35" s="19"/>
-      <c r="CD35" s="19"/>
-      <c r="CE35" s="19"/>
-      <c r="CF35" s="19"/>
+      <c r="CA35" s="11"/>
+      <c r="CB35" s="11"/>
+      <c r="CC35" s="11"/>
+      <c r="CD35" s="11"/>
+      <c r="CE35" s="11"/>
+      <c r="CF35" s="11"/>
       <c r="CG35" s="1"/>
       <c r="CH35" s="1"/>
       <c r="CI35" s="1"/>
@@ -12079,13 +12094,13 @@
       <c r="JK35" s="1"/>
       <c r="JL35" s="1"/>
     </row>
-    <row r="36" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="13"/>
-      <c r="D36" s="9" t="s">
+    <row r="36" spans="3:272" outlineLevel="1">
+      <c r="C36" s="17"/>
+      <c r="D36" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="6">
         <v>41603</v>
       </c>
@@ -12357,13 +12372,13 @@
       <c r="JK36" s="1"/>
       <c r="JL36" s="1"/>
     </row>
-    <row r="37" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="9" t="s">
+    <row r="37" spans="3:272" outlineLevel="1">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="5">
         <v>41603</v>
       </c>
@@ -12446,19 +12461,19 @@
       <c r="CD37" s="1"/>
       <c r="CE37" s="1"/>
       <c r="CF37" s="1"/>
-      <c r="CG37" s="19"/>
-      <c r="CH37" s="19"/>
-      <c r="CI37" s="19"/>
-      <c r="CJ37" s="19"/>
-      <c r="CK37" s="19"/>
-      <c r="CL37" s="19"/>
-      <c r="CM37" s="19"/>
-      <c r="CN37" s="19"/>
-      <c r="CO37" s="19"/>
-      <c r="CP37" s="19"/>
-      <c r="CQ37" s="19"/>
-      <c r="CR37" s="19"/>
-      <c r="CS37" s="19"/>
+      <c r="CG37" s="11"/>
+      <c r="CH37" s="11"/>
+      <c r="CI37" s="11"/>
+      <c r="CJ37" s="11"/>
+      <c r="CK37" s="11"/>
+      <c r="CL37" s="11"/>
+      <c r="CM37" s="11"/>
+      <c r="CN37" s="11"/>
+      <c r="CO37" s="11"/>
+      <c r="CP37" s="11"/>
+      <c r="CQ37" s="11"/>
+      <c r="CR37" s="11"/>
+      <c r="CS37" s="11"/>
       <c r="CT37" s="1"/>
       <c r="CU37" s="1"/>
       <c r="CV37" s="1"/>
@@ -12635,13 +12650,13 @@
       <c r="JK37" s="1"/>
       <c r="JL37" s="1"/>
     </row>
-    <row r="38" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="9" t="s">
+    <row r="38" spans="3:272" outlineLevel="1">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="19"/>
       <c r="G38" s="5">
         <v>41611</v>
       </c>
@@ -12732,16 +12747,16 @@
       <c r="CL38" s="1"/>
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
-      <c r="CO38" s="19"/>
-      <c r="CP38" s="19"/>
-      <c r="CQ38" s="19"/>
-      <c r="CR38" s="19"/>
-      <c r="CS38" s="19"/>
-      <c r="CT38" s="19"/>
-      <c r="CU38" s="19"/>
-      <c r="CV38" s="19"/>
-      <c r="CW38" s="19"/>
-      <c r="CX38" s="19"/>
+      <c r="CO38" s="11"/>
+      <c r="CP38" s="11"/>
+      <c r="CQ38" s="11"/>
+      <c r="CR38" s="11"/>
+      <c r="CS38" s="11"/>
+      <c r="CT38" s="11"/>
+      <c r="CU38" s="11"/>
+      <c r="CV38" s="11"/>
+      <c r="CW38" s="11"/>
+      <c r="CX38" s="11"/>
       <c r="CY38" s="1"/>
       <c r="CZ38" s="1"/>
       <c r="DA38" s="1"/>
@@ -12913,13 +12928,13 @@
       <c r="JK38" s="1"/>
       <c r="JL38" s="1"/>
     </row>
-    <row r="39" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="9" t="s">
+    <row r="39" spans="3:272" outlineLevel="1">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="5">
         <v>41621</v>
       </c>
@@ -13020,11 +13035,11 @@
       <c r="CV39" s="1"/>
       <c r="CW39" s="1"/>
       <c r="CX39" s="1"/>
-      <c r="CY39" s="19"/>
-      <c r="CZ39" s="19"/>
-      <c r="DA39" s="19"/>
-      <c r="DB39" s="19"/>
-      <c r="DC39" s="19"/>
+      <c r="CY39" s="11"/>
+      <c r="CZ39" s="11"/>
+      <c r="DA39" s="11"/>
+      <c r="DB39" s="11"/>
+      <c r="DC39" s="11"/>
       <c r="DD39" s="1"/>
       <c r="DE39" s="1"/>
       <c r="DF39" s="1"/>
@@ -13191,13 +13206,13 @@
       <c r="JK39" s="1"/>
       <c r="JL39" s="1"/>
     </row>
-    <row r="40" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="9" t="s">
+    <row r="40" spans="3:272" outlineLevel="1">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="5">
         <v>41626</v>
       </c>
@@ -13303,11 +13318,11 @@
       <c r="DA40" s="1"/>
       <c r="DB40" s="1"/>
       <c r="DC40" s="1"/>
-      <c r="DD40" s="19"/>
-      <c r="DE40" s="19"/>
-      <c r="DF40" s="19"/>
-      <c r="DG40" s="19"/>
-      <c r="DH40" s="19"/>
+      <c r="DD40" s="11"/>
+      <c r="DE40" s="11"/>
+      <c r="DF40" s="11"/>
+      <c r="DG40" s="11"/>
+      <c r="DH40" s="11"/>
       <c r="DI40" s="1"/>
       <c r="DJ40" s="1"/>
       <c r="DK40" s="1"/>
@@ -13469,17 +13484,17 @@
       <c r="JK40" s="1"/>
       <c r="JL40" s="1"/>
     </row>
-    <row r="41" spans="3:272" x14ac:dyDescent="0.3">
-      <c r="C41" s="14" t="s">
+    <row r="41" spans="3:272">
+      <c r="C41" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="8">
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="7">
         <v>41631</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="7">
         <v>41356</v>
       </c>
       <c r="I41" s="1"/>
@@ -13586,97 +13601,97 @@
       <c r="DF41" s="1"/>
       <c r="DG41" s="1"/>
       <c r="DH41" s="1"/>
-      <c r="DI41" s="17"/>
-      <c r="DJ41" s="17"/>
-      <c r="DK41" s="17"/>
-      <c r="DL41" s="17"/>
-      <c r="DM41" s="17"/>
-      <c r="DN41" s="17"/>
-      <c r="DO41" s="17"/>
-      <c r="DP41" s="17"/>
-      <c r="DQ41" s="17"/>
-      <c r="DR41" s="17"/>
-      <c r="DS41" s="17"/>
-      <c r="DT41" s="17"/>
-      <c r="DU41" s="17"/>
-      <c r="DV41" s="17"/>
-      <c r="DW41" s="17"/>
-      <c r="DX41" s="17"/>
-      <c r="DY41" s="17"/>
-      <c r="DZ41" s="17"/>
-      <c r="EA41" s="17"/>
-      <c r="EB41" s="17"/>
-      <c r="EC41" s="17"/>
-      <c r="ED41" s="17"/>
-      <c r="EE41" s="17"/>
-      <c r="EF41" s="17"/>
-      <c r="EG41" s="17"/>
-      <c r="EH41" s="17"/>
-      <c r="EI41" s="17"/>
-      <c r="EJ41" s="17"/>
-      <c r="EK41" s="17"/>
-      <c r="EL41" s="17"/>
-      <c r="EM41" s="17"/>
-      <c r="EN41" s="17"/>
-      <c r="EO41" s="17"/>
-      <c r="EP41" s="17"/>
-      <c r="EQ41" s="17"/>
-      <c r="ER41" s="17"/>
-      <c r="ES41" s="17"/>
-      <c r="ET41" s="17"/>
-      <c r="EU41" s="17"/>
-      <c r="EV41" s="17"/>
-      <c r="EW41" s="17"/>
-      <c r="EX41" s="17"/>
-      <c r="EY41" s="17"/>
-      <c r="EZ41" s="17"/>
-      <c r="FA41" s="17"/>
-      <c r="FB41" s="17"/>
-      <c r="FC41" s="17"/>
-      <c r="FD41" s="17"/>
-      <c r="FE41" s="17"/>
-      <c r="FF41" s="17"/>
-      <c r="FG41" s="17"/>
-      <c r="FH41" s="17"/>
-      <c r="FI41" s="17"/>
-      <c r="FJ41" s="17"/>
-      <c r="FK41" s="17"/>
-      <c r="FL41" s="17"/>
-      <c r="FM41" s="17"/>
-      <c r="FN41" s="17"/>
-      <c r="FO41" s="17"/>
-      <c r="FP41" s="17"/>
-      <c r="FQ41" s="17"/>
-      <c r="FR41" s="17"/>
-      <c r="FS41" s="17"/>
-      <c r="FT41" s="17"/>
-      <c r="FU41" s="17"/>
-      <c r="FV41" s="17"/>
-      <c r="FW41" s="17"/>
-      <c r="FX41" s="17"/>
-      <c r="FY41" s="17"/>
-      <c r="FZ41" s="17"/>
-      <c r="GA41" s="17"/>
-      <c r="GB41" s="17"/>
-      <c r="GC41" s="17"/>
-      <c r="GD41" s="17"/>
-      <c r="GE41" s="17"/>
-      <c r="GF41" s="17"/>
-      <c r="GG41" s="17"/>
-      <c r="GH41" s="17"/>
-      <c r="GI41" s="17"/>
-      <c r="GJ41" s="17"/>
-      <c r="GK41" s="17"/>
-      <c r="GL41" s="17"/>
-      <c r="GM41" s="17"/>
-      <c r="GN41" s="17"/>
-      <c r="GO41" s="17"/>
-      <c r="GP41" s="17"/>
-      <c r="GQ41" s="17"/>
-      <c r="GR41" s="17"/>
-      <c r="GS41" s="17"/>
-      <c r="GT41" s="17"/>
-      <c r="GU41" s="17"/>
+      <c r="DI41" s="10"/>
+      <c r="DJ41" s="10"/>
+      <c r="DK41" s="10"/>
+      <c r="DL41" s="10"/>
+      <c r="DM41" s="10"/>
+      <c r="DN41" s="10"/>
+      <c r="DO41" s="10"/>
+      <c r="DP41" s="10"/>
+      <c r="DQ41" s="10"/>
+      <c r="DR41" s="10"/>
+      <c r="DS41" s="10"/>
+      <c r="DT41" s="10"/>
+      <c r="DU41" s="10"/>
+      <c r="DV41" s="10"/>
+      <c r="DW41" s="10"/>
+      <c r="DX41" s="10"/>
+      <c r="DY41" s="10"/>
+      <c r="DZ41" s="10"/>
+      <c r="EA41" s="10"/>
+      <c r="EB41" s="10"/>
+      <c r="EC41" s="10"/>
+      <c r="ED41" s="10"/>
+      <c r="EE41" s="10"/>
+      <c r="EF41" s="10"/>
+      <c r="EG41" s="10"/>
+      <c r="EH41" s="10"/>
+      <c r="EI41" s="10"/>
+      <c r="EJ41" s="10"/>
+      <c r="EK41" s="10"/>
+      <c r="EL41" s="10"/>
+      <c r="EM41" s="10"/>
+      <c r="EN41" s="10"/>
+      <c r="EO41" s="10"/>
+      <c r="EP41" s="10"/>
+      <c r="EQ41" s="10"/>
+      <c r="ER41" s="10"/>
+      <c r="ES41" s="10"/>
+      <c r="ET41" s="10"/>
+      <c r="EU41" s="10"/>
+      <c r="EV41" s="10"/>
+      <c r="EW41" s="10"/>
+      <c r="EX41" s="10"/>
+      <c r="EY41" s="10"/>
+      <c r="EZ41" s="10"/>
+      <c r="FA41" s="10"/>
+      <c r="FB41" s="10"/>
+      <c r="FC41" s="10"/>
+      <c r="FD41" s="10"/>
+      <c r="FE41" s="10"/>
+      <c r="FF41" s="10"/>
+      <c r="FG41" s="10"/>
+      <c r="FH41" s="10"/>
+      <c r="FI41" s="10"/>
+      <c r="FJ41" s="10"/>
+      <c r="FK41" s="10"/>
+      <c r="FL41" s="10"/>
+      <c r="FM41" s="10"/>
+      <c r="FN41" s="10"/>
+      <c r="FO41" s="10"/>
+      <c r="FP41" s="10"/>
+      <c r="FQ41" s="10"/>
+      <c r="FR41" s="10"/>
+      <c r="FS41" s="10"/>
+      <c r="FT41" s="10"/>
+      <c r="FU41" s="10"/>
+      <c r="FV41" s="10"/>
+      <c r="FW41" s="10"/>
+      <c r="FX41" s="10"/>
+      <c r="FY41" s="10"/>
+      <c r="FZ41" s="10"/>
+      <c r="GA41" s="10"/>
+      <c r="GB41" s="10"/>
+      <c r="GC41" s="10"/>
+      <c r="GD41" s="10"/>
+      <c r="GE41" s="10"/>
+      <c r="GF41" s="10"/>
+      <c r="GG41" s="10"/>
+      <c r="GH41" s="10"/>
+      <c r="GI41" s="10"/>
+      <c r="GJ41" s="10"/>
+      <c r="GK41" s="10"/>
+      <c r="GL41" s="10"/>
+      <c r="GM41" s="10"/>
+      <c r="GN41" s="10"/>
+      <c r="GO41" s="10"/>
+      <c r="GP41" s="10"/>
+      <c r="GQ41" s="10"/>
+      <c r="GR41" s="10"/>
+      <c r="GS41" s="10"/>
+      <c r="GT41" s="10"/>
+      <c r="GU41" s="10"/>
       <c r="GV41" s="1"/>
       <c r="GW41" s="1"/>
       <c r="GX41" s="1"/>
@@ -13747,13 +13762,13 @@
       <c r="JK41" s="1"/>
       <c r="JL41" s="1"/>
     </row>
-    <row r="42" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="13"/>
-      <c r="D42" s="9" t="s">
+    <row r="42" spans="3:272" outlineLevel="1">
+      <c r="C42" s="17"/>
+      <c r="D42" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="1"/>
@@ -14021,13 +14036,13 @@
       <c r="JK42" s="1"/>
       <c r="JL42" s="1"/>
     </row>
-    <row r="43" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="9" t="s">
+    <row r="43" spans="3:272" outlineLevel="1">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="3"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -14295,10 +14310,10 @@
       <c r="JK43" s="1"/>
       <c r="JL43" s="1"/>
     </row>
-    <row r="44" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+    <row r="44" spans="3:272" outlineLevel="1">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="2" t="s">
         <v>34</v>
       </c>
@@ -14569,10 +14584,10 @@
       <c r="JK44" s="1"/>
       <c r="JL44" s="1"/>
     </row>
-    <row r="45" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+    <row r="45" spans="3:272" outlineLevel="1">
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="2" t="s">
         <v>35</v>
       </c>
@@ -14843,10 +14858,10 @@
       <c r="JK45" s="1"/>
       <c r="JL45" s="1"/>
     </row>
-    <row r="46" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+    <row r="46" spans="3:272" outlineLevel="1">
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="2" t="s">
         <v>36</v>
       </c>
@@ -15117,13 +15132,13 @@
       <c r="JK46" s="1"/>
       <c r="JL46" s="1"/>
     </row>
-    <row r="47" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="9" t="s">
+    <row r="47" spans="3:272" outlineLevel="1">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="1"/>
@@ -15391,10 +15406,10 @@
       <c r="JK47" s="1"/>
       <c r="JL47" s="1"/>
     </row>
-    <row r="48" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+    <row r="48" spans="3:272" outlineLevel="1">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="2" t="s">
         <v>38</v>
       </c>
@@ -15665,10 +15680,10 @@
       <c r="JK48" s="1"/>
       <c r="JL48" s="1"/>
     </row>
-    <row r="49" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
+    <row r="49" spans="3:272" outlineLevel="1">
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="2" t="s">
         <v>39</v>
       </c>
@@ -15939,10 +15954,10 @@
       <c r="JK49" s="1"/>
       <c r="JL49" s="1"/>
     </row>
-    <row r="50" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
+    <row r="50" spans="3:272" outlineLevel="1">
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="2" t="s">
         <v>40</v>
       </c>
@@ -16213,13 +16228,13 @@
       <c r="JK50" s="1"/>
       <c r="JL50" s="1"/>
     </row>
-    <row r="51" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="9" t="s">
+    <row r="51" spans="3:272" outlineLevel="1">
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="19"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="1"/>
@@ -16487,10 +16502,10 @@
       <c r="JK51" s="1"/>
       <c r="JL51" s="1"/>
     </row>
-    <row r="52" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+    <row r="52" spans="3:272" outlineLevel="1">
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="2" t="s">
         <v>42</v>
       </c>
@@ -16761,10 +16776,10 @@
       <c r="JK52" s="1"/>
       <c r="JL52" s="1"/>
     </row>
-    <row r="53" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+    <row r="53" spans="3:272" outlineLevel="1">
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
       <c r="F53" s="2" t="s">
         <v>43</v>
       </c>
@@ -17035,10 +17050,10 @@
       <c r="JK53" s="1"/>
       <c r="JL53" s="1"/>
     </row>
-    <row r="54" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+    <row r="54" spans="3:272" outlineLevel="1">
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
       <c r="F54" s="2" t="s">
         <v>39</v>
       </c>
@@ -17309,10 +17324,10 @@
       <c r="JK54" s="1"/>
       <c r="JL54" s="1"/>
     </row>
-    <row r="55" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+    <row r="55" spans="3:272" outlineLevel="1">
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
       <c r="F55" s="2" t="s">
         <v>44</v>
       </c>
@@ -17583,13 +17598,13 @@
       <c r="JK55" s="1"/>
       <c r="JL55" s="1"/>
     </row>
-    <row r="56" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="9" t="s">
+    <row r="56" spans="3:272" outlineLevel="1">
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="19"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="1"/>
@@ -17857,17 +17872,17 @@
       <c r="JK56" s="1"/>
       <c r="JL56" s="1"/>
     </row>
-    <row r="57" spans="3:272" x14ac:dyDescent="0.3">
-      <c r="C57" s="14" t="s">
+    <row r="57" spans="3:272">
+      <c r="C57" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="8">
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="7">
         <v>41722</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="7">
         <v>41763</v>
       </c>
       <c r="I57" s="1"/>
@@ -18065,48 +18080,48 @@
       <c r="GS57" s="1"/>
       <c r="GT57" s="1"/>
       <c r="GU57" s="1"/>
-      <c r="GV57" s="17"/>
-      <c r="GW57" s="17"/>
-      <c r="GX57" s="17"/>
-      <c r="GY57" s="17"/>
-      <c r="GZ57" s="17"/>
-      <c r="HA57" s="17"/>
-      <c r="HB57" s="17"/>
-      <c r="HC57" s="17"/>
-      <c r="HD57" s="17"/>
-      <c r="HE57" s="17"/>
-      <c r="HF57" s="17"/>
-      <c r="HG57" s="17"/>
-      <c r="HH57" s="17"/>
-      <c r="HI57" s="17"/>
-      <c r="HJ57" s="17"/>
-      <c r="HK57" s="17"/>
-      <c r="HL57" s="17"/>
-      <c r="HM57" s="17"/>
-      <c r="HN57" s="17"/>
-      <c r="HO57" s="17"/>
-      <c r="HP57" s="17"/>
-      <c r="HQ57" s="17"/>
-      <c r="HR57" s="17"/>
-      <c r="HS57" s="17"/>
-      <c r="HT57" s="17"/>
-      <c r="HU57" s="17"/>
-      <c r="HV57" s="17"/>
-      <c r="HW57" s="17"/>
-      <c r="HX57" s="17"/>
-      <c r="HY57" s="17"/>
-      <c r="HZ57" s="17"/>
-      <c r="IA57" s="17"/>
-      <c r="IB57" s="17"/>
-      <c r="IC57" s="17"/>
-      <c r="ID57" s="17"/>
-      <c r="IE57" s="17"/>
-      <c r="IF57" s="17"/>
-      <c r="IG57" s="17"/>
-      <c r="IH57" s="17"/>
-      <c r="II57" s="17"/>
-      <c r="IJ57" s="17"/>
-      <c r="IK57" s="17"/>
+      <c r="GV57" s="10"/>
+      <c r="GW57" s="10"/>
+      <c r="GX57" s="10"/>
+      <c r="GY57" s="10"/>
+      <c r="GZ57" s="10"/>
+      <c r="HA57" s="10"/>
+      <c r="HB57" s="10"/>
+      <c r="HC57" s="10"/>
+      <c r="HD57" s="10"/>
+      <c r="HE57" s="10"/>
+      <c r="HF57" s="10"/>
+      <c r="HG57" s="10"/>
+      <c r="HH57" s="10"/>
+      <c r="HI57" s="10"/>
+      <c r="HJ57" s="10"/>
+      <c r="HK57" s="10"/>
+      <c r="HL57" s="10"/>
+      <c r="HM57" s="10"/>
+      <c r="HN57" s="10"/>
+      <c r="HO57" s="10"/>
+      <c r="HP57" s="10"/>
+      <c r="HQ57" s="10"/>
+      <c r="HR57" s="10"/>
+      <c r="HS57" s="10"/>
+      <c r="HT57" s="10"/>
+      <c r="HU57" s="10"/>
+      <c r="HV57" s="10"/>
+      <c r="HW57" s="10"/>
+      <c r="HX57" s="10"/>
+      <c r="HY57" s="10"/>
+      <c r="HZ57" s="10"/>
+      <c r="IA57" s="10"/>
+      <c r="IB57" s="10"/>
+      <c r="IC57" s="10"/>
+      <c r="ID57" s="10"/>
+      <c r="IE57" s="10"/>
+      <c r="IF57" s="10"/>
+      <c r="IG57" s="10"/>
+      <c r="IH57" s="10"/>
+      <c r="II57" s="10"/>
+      <c r="IJ57" s="10"/>
+      <c r="IK57" s="10"/>
       <c r="IL57" s="1"/>
       <c r="IM57" s="1"/>
       <c r="IN57" s="1"/>
@@ -18135,13 +18150,13 @@
       <c r="JK57" s="1"/>
       <c r="JL57" s="1"/>
     </row>
-    <row r="58" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="13"/>
-      <c r="D58" s="9" t="s">
+    <row r="58" spans="3:272" outlineLevel="1">
+      <c r="C58" s="17"/>
+      <c r="D58" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="1"/>
@@ -18409,13 +18424,13 @@
       <c r="JK58" s="1"/>
       <c r="JL58" s="1"/>
     </row>
-    <row r="59" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="9" t="s">
+    <row r="59" spans="3:272" outlineLevel="1">
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="9"/>
+      <c r="F59" s="19"/>
       <c r="G59" s="3"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -18683,10 +18698,10 @@
       <c r="JK59" s="1"/>
       <c r="JL59" s="1"/>
     </row>
-    <row r="60" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+    <row r="60" spans="3:272" outlineLevel="1">
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
       <c r="F60" s="2" t="s">
         <v>41</v>
       </c>
@@ -18957,10 +18972,10 @@
       <c r="JK60" s="1"/>
       <c r="JL60" s="1"/>
     </row>
-    <row r="61" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+    <row r="61" spans="3:272" outlineLevel="1">
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
       <c r="F61" s="2" t="s">
         <v>39</v>
       </c>
@@ -19231,10 +19246,10 @@
       <c r="JK61" s="1"/>
       <c r="JL61" s="1"/>
     </row>
-    <row r="62" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+    <row r="62" spans="3:272" outlineLevel="1">
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
       <c r="F62" s="2" t="s">
         <v>37</v>
       </c>
@@ -19505,13 +19520,13 @@
       <c r="JK62" s="1"/>
       <c r="JL62" s="1"/>
     </row>
-    <row r="63" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="9" t="s">
+    <row r="63" spans="3:272" outlineLevel="1">
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="19"/>
       <c r="G63" s="3"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -19779,13 +19794,13 @@
       <c r="JK63" s="1"/>
       <c r="JL63" s="1"/>
     </row>
-    <row r="64" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="9" t="s">
+    <row r="64" spans="3:272" outlineLevel="1">
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="19"/>
       <c r="G64" s="3"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -20053,17 +20068,17 @@
       <c r="JK64" s="1"/>
       <c r="JL64" s="1"/>
     </row>
-    <row r="65" spans="3:272" x14ac:dyDescent="0.3">
-      <c r="C65" s="14" t="s">
+    <row r="65" spans="3:272">
+      <c r="C65" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="8">
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="7">
         <v>41764</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="7">
         <v>41764</v>
       </c>
       <c r="I65" s="1"/>
@@ -20303,7 +20318,7 @@
       <c r="II65" s="1"/>
       <c r="IJ65" s="1"/>
       <c r="IK65" s="1"/>
-      <c r="IL65" s="17"/>
+      <c r="IL65" s="10"/>
       <c r="IM65" s="1"/>
       <c r="IN65" s="1"/>
       <c r="IO65" s="1"/>
@@ -20331,13 +20346,13 @@
       <c r="JK65" s="1"/>
       <c r="JL65" s="1"/>
     </row>
-    <row r="66" spans="3:272" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:272" outlineLevel="1">
       <c r="C66" s="2"/>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="1"/>
@@ -20607,83 +20622,22 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="JF4:JL4"/>
-    <mergeCell ref="HW4:IC4"/>
-    <mergeCell ref="ID4:IJ4"/>
-    <mergeCell ref="IK4:IQ4"/>
-    <mergeCell ref="IR4:IX4"/>
-    <mergeCell ref="IY4:JE4"/>
-    <mergeCell ref="GN4:GT4"/>
-    <mergeCell ref="GU4:HA4"/>
-    <mergeCell ref="HB4:HH4"/>
-    <mergeCell ref="HI4:HO4"/>
-    <mergeCell ref="HP4:HV4"/>
-    <mergeCell ref="FE4:FK4"/>
-    <mergeCell ref="FL4:FR4"/>
-    <mergeCell ref="FS4:FY4"/>
-    <mergeCell ref="FZ4:GF4"/>
-    <mergeCell ref="GG4:GM4"/>
-    <mergeCell ref="DV4:EB4"/>
-    <mergeCell ref="EC4:EI4"/>
-    <mergeCell ref="EJ4:EP4"/>
-    <mergeCell ref="EQ4:EW4"/>
-    <mergeCell ref="EX4:FD4"/>
-    <mergeCell ref="CM4:CS4"/>
-    <mergeCell ref="CT4:CZ4"/>
-    <mergeCell ref="DA4:DG4"/>
-    <mergeCell ref="DH4:DN4"/>
-    <mergeCell ref="DO4:DU4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="CF4:CL4"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:C26"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:D26"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:C40"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C42:C56"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:D56"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="EW3:FX3"/>
+    <mergeCell ref="FY3:HC3"/>
+    <mergeCell ref="HD3:IG3"/>
+    <mergeCell ref="IH3:JL3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="I3:AC3"/>
+    <mergeCell ref="AD3:BH3"/>
+    <mergeCell ref="BI3:CL3"/>
+    <mergeCell ref="CM3:DQ3"/>
+    <mergeCell ref="DR3:EV3"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="C65:F65"/>
     <mergeCell ref="D66:F66"/>
     <mergeCell ref="C3:C6"/>
@@ -20700,26 +20654,92 @@
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="C41:F41"/>
-    <mergeCell ref="EW3:FX3"/>
-    <mergeCell ref="FY3:HC3"/>
-    <mergeCell ref="HD3:IG3"/>
-    <mergeCell ref="IH3:JL3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="I3:AC3"/>
-    <mergeCell ref="AD3:BH3"/>
-    <mergeCell ref="BI3:CL3"/>
-    <mergeCell ref="CM3:DQ3"/>
-    <mergeCell ref="DR3:EV3"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="C42:C56"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:D56"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:C40"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:C26"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:D26"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="CM4:CS4"/>
+    <mergeCell ref="CT4:CZ4"/>
+    <mergeCell ref="DA4:DG4"/>
+    <mergeCell ref="DH4:DN4"/>
+    <mergeCell ref="DO4:DU4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="CF4:CL4"/>
+    <mergeCell ref="FE4:FK4"/>
+    <mergeCell ref="FL4:FR4"/>
+    <mergeCell ref="FS4:FY4"/>
+    <mergeCell ref="FZ4:GF4"/>
+    <mergeCell ref="GG4:GM4"/>
+    <mergeCell ref="DV4:EB4"/>
+    <mergeCell ref="EC4:EI4"/>
+    <mergeCell ref="EJ4:EP4"/>
+    <mergeCell ref="EQ4:EW4"/>
+    <mergeCell ref="EX4:FD4"/>
+    <mergeCell ref="JF4:JL4"/>
+    <mergeCell ref="HW4:IC4"/>
+    <mergeCell ref="ID4:IJ4"/>
+    <mergeCell ref="IK4:IQ4"/>
+    <mergeCell ref="IR4:IX4"/>
+    <mergeCell ref="IY4:JE4"/>
+    <mergeCell ref="GN4:GT4"/>
+    <mergeCell ref="GU4:HA4"/>
+    <mergeCell ref="HB4:HH4"/>
+    <mergeCell ref="HI4:HO4"/>
+    <mergeCell ref="HP4:HV4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20727,303 +20747,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CB18" sqref="CB18"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="80" width="2.625" customWidth="1"/>
+    <col min="5" max="80" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:80">
+      <c r="B2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18" t="s">
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18" t="s">
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18" t="s">
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18" t="s">
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18" t="s">
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18" t="s">
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="13"/>
+      <c r="BO2" s="13"/>
+      <c r="BP2" s="13"/>
+      <c r="BQ2" s="13"/>
+      <c r="BR2" s="13"/>
+      <c r="BS2" s="13"/>
+      <c r="BT2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="18"/>
-      <c r="BW2" s="18"/>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
+      <c r="BU2" s="13"/>
+      <c r="BV2" s="13"/>
+      <c r="BW2" s="13"/>
+      <c r="BX2" s="13"/>
+      <c r="BY2" s="13"/>
+      <c r="BZ2" s="13"/>
+      <c r="CA2" s="13"/>
+      <c r="CB2" s="13"/>
     </row>
-    <row r="3" spans="2:80" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="18" t="s">
+    <row r="3" spans="2:80">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="13"/>
+      <c r="S3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="13"/>
+      <c r="U3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18" t="s">
+      <c r="V3" s="13"/>
+      <c r="W3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18" t="s">
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18" t="s">
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18" t="s">
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18" t="s">
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18" t="s">
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18" t="s">
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18" t="s">
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18" t="s">
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18" t="s">
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18" t="s">
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18" t="s">
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18" t="s">
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18" t="s">
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18" t="s">
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18" t="s">
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18" t="s">
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="18" t="s">
+      <c r="BD3" s="13"/>
+      <c r="BE3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18" t="s">
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18" t="s">
+      <c r="BH3" s="13"/>
+      <c r="BI3" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="BJ3" s="18"/>
-      <c r="BK3" s="18" t="s">
+      <c r="BJ3" s="13"/>
+      <c r="BK3" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="BL3" s="18"/>
-      <c r="BM3" s="18" t="s">
+      <c r="BL3" s="13"/>
+      <c r="BM3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="BN3" s="18"/>
-      <c r="BO3" s="18" t="s">
+      <c r="BN3" s="13"/>
+      <c r="BO3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="BP3" s="18"/>
-      <c r="BQ3" s="18" t="s">
+      <c r="BP3" s="13"/>
+      <c r="BQ3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="BR3" s="18"/>
-      <c r="BS3" s="18" t="s">
+      <c r="BR3" s="13"/>
+      <c r="BS3" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="BT3" s="18"/>
-      <c r="BU3" s="18" t="s">
+      <c r="BT3" s="13"/>
+      <c r="BU3" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="BV3" s="18"/>
-      <c r="BW3" s="18" t="s">
+      <c r="BV3" s="13"/>
+      <c r="BW3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="18" t="s">
+      <c r="BX3" s="13"/>
+      <c r="BY3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="BZ3" s="18"/>
-      <c r="CA3" s="18" t="s">
+      <c r="BZ3" s="13"/>
+      <c r="CA3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="CB3" s="18"/>
+      <c r="CB3" s="13"/>
     </row>
-    <row r="4" spans="2:80" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:80">
+      <c r="B4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="21">
         <v>41527</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>41560</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -21090,14 +21110,14 @@
       <c r="CA4" s="1"/>
       <c r="CB4" s="1"/>
     </row>
-    <row r="5" spans="2:80" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:80">
+      <c r="B5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="21">
         <v>41561</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>41581</v>
       </c>
       <c r="E5" s="1"/>
@@ -21111,12 +21131,12 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -21177,14 +21197,14 @@
       <c r="CA5" s="1"/>
       <c r="CB5" s="1"/>
     </row>
-    <row r="6" spans="2:80" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:80">
+      <c r="B6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="21">
         <v>41603</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>41630</v>
       </c>
       <c r="E6" s="1"/>
@@ -21204,20 +21224,20 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
@@ -21264,14 +21284,14 @@
       <c r="CA6" s="1"/>
       <c r="CB6" s="1"/>
     </row>
-    <row r="7" spans="2:80" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:80">
+      <c r="B7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="21">
         <v>41631</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>41356</v>
       </c>
       <c r="E7" s="1"/>
@@ -21305,32 +21325,32 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="17"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="10"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="10"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -21351,14 +21371,14 @@
       <c r="CA7" s="1"/>
       <c r="CB7" s="1"/>
     </row>
-    <row r="8" spans="2:80" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:80">
+      <c r="B8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="21">
         <v>41722</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>41763</v>
       </c>
       <c r="E8" s="1"/>
@@ -21418,18 +21438,18 @@
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
-      <c r="BJ8" s="17"/>
-      <c r="BK8" s="17"/>
-      <c r="BL8" s="17"/>
-      <c r="BM8" s="17"/>
-      <c r="BN8" s="17"/>
-      <c r="BO8" s="17"/>
-      <c r="BP8" s="17"/>
-      <c r="BQ8" s="17"/>
-      <c r="BR8" s="17"/>
-      <c r="BS8" s="17"/>
-      <c r="BT8" s="17"/>
-      <c r="BU8" s="17"/>
+      <c r="BJ8" s="10"/>
+      <c r="BK8" s="10"/>
+      <c r="BL8" s="10"/>
+      <c r="BM8" s="10"/>
+      <c r="BN8" s="10"/>
+      <c r="BO8" s="10"/>
+      <c r="BP8" s="10"/>
+      <c r="BQ8" s="10"/>
+      <c r="BR8" s="10"/>
+      <c r="BS8" s="10"/>
+      <c r="BT8" s="10"/>
+      <c r="BU8" s="10"/>
       <c r="BV8" s="1"/>
       <c r="BW8" s="1"/>
       <c r="BX8" s="1"/>
@@ -21438,14 +21458,14 @@
       <c r="CA8" s="1"/>
       <c r="CB8" s="1"/>
     </row>
-    <row r="9" spans="2:80" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:80">
+      <c r="B9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="21">
         <v>41764</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>41764</v>
       </c>
       <c r="E9" s="1"/>
@@ -21517,7 +21537,7 @@
       <c r="BS9" s="1"/>
       <c r="BT9" s="1"/>
       <c r="BU9" s="1"/>
-      <c r="BV9" s="17"/>
+      <c r="BV9" s="10"/>
       <c r="BW9" s="1"/>
       <c r="BX9" s="1"/>
       <c r="BY9" s="1"/>
@@ -21527,6 +21547,46 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="BT2:CB2"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="AL2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BK2"/>
+    <mergeCell ref="BL2:BS2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
     <mergeCell ref="BU3:BV3"/>
     <mergeCell ref="BW3:BX3"/>
     <mergeCell ref="BY3:BZ3"/>
@@ -21537,48 +21597,13 @@
     <mergeCell ref="BO3:BP3"/>
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="AL2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BK2"/>
-    <mergeCell ref="BL2:BS2"/>
-    <mergeCell ref="BT2:CB2"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="T2:AB2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>